--- a/datos.xlsx
+++ b/datos.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="41">
   <si>
     <t>Algoritmos de multiplicación de matrices</t>
   </si>
@@ -19347,52 +19347,52 @@
         <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>1479500.0</v>
+        <v>1779200.0</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>766800.0</v>
+        <v>530800.0</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>594400.0</v>
+        <v>580100.0</v>
       </c>
       <c r="I6" t="s">
         <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>962500.0</v>
+        <v>941400.0</v>
       </c>
       <c r="K6" t="s">
         <v>37</v>
       </c>
       <c r="L6" t="n">
-        <v>2569100.0</v>
+        <v>2837800.0</v>
       </c>
       <c r="M6" t="s">
         <v>38</v>
       </c>
       <c r="N6" t="n">
-        <v>5222900.0</v>
+        <v>6033700.0</v>
       </c>
       <c r="O6" t="s">
         <v>39</v>
       </c>
       <c r="P6" t="n">
-        <v>8542600.0</v>
+        <v>7244600.0</v>
       </c>
       <c r="Q6" t="s">
         <v>40</v>
       </c>
       <c r="R6" t="n">
-        <v>1.01884E7</v>
+        <v>1.1097E7</v>
       </c>
       <c r="AA6" t="n">
-        <v>3790775.0</v>
+        <v>3880575.0</v>
       </c>
     </row>
     <row ht="15" r="7" spans="1:27">
@@ -19406,52 +19406,52 @@
         <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>1328400.0</v>
+        <v>3109500.0</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>519300.0</v>
+        <v>596500.0</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>1427200.0</v>
+        <v>1446000.0</v>
       </c>
       <c r="I7" t="s">
         <v>36</v>
       </c>
       <c r="J7" t="n">
-        <v>2103600.0</v>
+        <v>2083800.0</v>
       </c>
       <c r="K7" t="s">
         <v>37</v>
       </c>
       <c r="L7" t="n">
-        <v>4967700.0</v>
+        <v>6645400.0</v>
       </c>
       <c r="M7" t="s">
         <v>38</v>
       </c>
       <c r="N7" t="n">
-        <v>9454700.0</v>
+        <v>9311300.0</v>
       </c>
       <c r="O7" t="s">
         <v>39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58759E7</v>
+        <v>1.58938E7</v>
       </c>
       <c r="Q7" t="s">
         <v>40</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88695E7</v>
+        <v>1.81387E7</v>
       </c>
       <c r="AA7" t="n">
-        <v>6818287.5</v>
+        <v>7153125.0</v>
       </c>
     </row>
     <row ht="15" r="8" spans="1:27">
@@ -19465,52 +19465,52 @@
         <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>889600.0</v>
+        <v>707000.0</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>156000.0</v>
+        <v>175900.0</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>504900.0</v>
+        <v>477800.0</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
       </c>
       <c r="J8" t="n">
-        <v>758500.0</v>
+        <v>1027800.0</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
       <c r="L8" t="n">
-        <v>3032700.0</v>
+        <v>3224000.0</v>
       </c>
       <c r="M8" t="s">
         <v>38</v>
       </c>
       <c r="N8" t="n">
-        <v>5167100.0</v>
+        <v>4474100.0</v>
       </c>
       <c r="O8" t="s">
         <v>39</v>
       </c>
       <c r="P8" t="n">
-        <v>7514000.0</v>
+        <v>7635100.0</v>
       </c>
       <c r="Q8" t="s">
         <v>40</v>
       </c>
       <c r="R8" t="n">
-        <v>1.02719E7</v>
+        <v>1.00073E7</v>
       </c>
       <c r="AA8" t="n">
-        <v>3536837.5</v>
+        <v>3466125.0</v>
       </c>
     </row>
     <row ht="15" r="9" spans="1:27">
@@ -19524,52 +19524,52 @@
         <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>1873000.0</v>
+        <v>743300.0</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>180200.0</v>
+        <v>222600.0</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>637300.0</v>
+        <v>1098100.0</v>
       </c>
       <c r="I9" t="s">
         <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>1231500.0</v>
+        <v>1779700.0</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
       </c>
       <c r="L9" t="n">
-        <v>3374700.0</v>
+        <v>2433100.0</v>
       </c>
       <c r="M9" t="s">
         <v>38</v>
       </c>
       <c r="N9" t="n">
-        <v>5693500.0</v>
+        <v>6283700.0</v>
       </c>
       <c r="O9" t="s">
         <v>39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.20742E7</v>
+        <v>1.11905E7</v>
       </c>
       <c r="Q9" t="s">
         <v>40</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4825E7</v>
+        <v>1.57245E7</v>
       </c>
       <c r="AA9" t="n">
-        <v>4986175.0</v>
+        <v>4934437.5</v>
       </c>
     </row>
     <row ht="15" r="10" spans="1:27">
@@ -19583,52 +19583,52 @@
         <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>650000.0</v>
+        <v>783600.0</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
       </c>
       <c r="F10" t="n">
-        <v>133400.0</v>
+        <v>91700.0</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>115100.0</v>
+        <v>143100.0</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>364200.0</v>
+        <v>278300.0</v>
       </c>
       <c r="K10" t="s">
         <v>37</v>
       </c>
       <c r="L10" t="n">
-        <v>643500.0</v>
+        <v>637000.0</v>
       </c>
       <c r="M10" t="s">
         <v>38</v>
       </c>
       <c r="N10" t="n">
-        <v>1452500.0</v>
+        <v>1569900.0</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
       </c>
       <c r="P10" t="n">
-        <v>2324600.0</v>
+        <v>2860400.0</v>
       </c>
       <c r="Q10" t="s">
         <v>40</v>
       </c>
       <c r="R10" t="n">
-        <v>2681700.0</v>
+        <v>3389300.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1045625.0</v>
+        <v>1219162.5</v>
       </c>
     </row>
     <row ht="15" r="11" spans="1:27">
@@ -19642,52 +19642,52 @@
         <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>617500.0</v>
+        <v>635400.0</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="F11" t="n">
-        <v>85700.0</v>
+        <v>133000.0</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>205500.0</v>
+        <v>510400.0</v>
       </c>
       <c r="I11" t="s">
         <v>36</v>
       </c>
       <c r="J11" t="n">
-        <v>487400.0</v>
+        <v>600200.0</v>
       </c>
       <c r="K11" t="s">
         <v>37</v>
       </c>
       <c r="L11" t="n">
-        <v>1066500.0</v>
+        <v>1081000.0</v>
       </c>
       <c r="M11" t="s">
         <v>38</v>
       </c>
       <c r="N11" t="n">
-        <v>2541500.0</v>
+        <v>2080300.0</v>
       </c>
       <c r="O11" t="s">
         <v>39</v>
       </c>
       <c r="P11" t="n">
-        <v>4545300.0</v>
+        <v>5496800.0</v>
       </c>
       <c r="Q11" t="s">
         <v>40</v>
       </c>
       <c r="R11" t="n">
-        <v>4640700.0</v>
+        <v>7121700.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1773762.5</v>
+        <v>2207350.0</v>
       </c>
     </row>
     <row ht="15" r="12" spans="1:27">
@@ -19701,52 +19701,52 @@
         <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>610800.0</v>
+        <v>819100.0</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
       <c r="F12" t="n">
-        <v>91200.0</v>
+        <v>68500.0</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
       </c>
       <c r="H12" t="n">
-        <v>131200.0</v>
+        <v>113500.0</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
       </c>
       <c r="J12" t="n">
-        <v>289000.0</v>
+        <v>296300.0</v>
       </c>
       <c r="K12" t="s">
         <v>37</v>
       </c>
       <c r="L12" t="n">
-        <v>628300.0</v>
+        <v>628500.0</v>
       </c>
       <c r="M12" t="s">
         <v>38</v>
       </c>
       <c r="N12" t="n">
-        <v>1330100.0</v>
+        <v>1557200.0</v>
       </c>
       <c r="O12" t="s">
         <v>39</v>
       </c>
       <c r="P12" t="n">
-        <v>2205600.0</v>
+        <v>2298600.0</v>
       </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
       <c r="R12" t="n">
-        <v>3018500.0</v>
+        <v>3777200.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1038087.5</v>
+        <v>1194862.5</v>
       </c>
     </row>
     <row ht="15" r="13" spans="1:27">
@@ -19760,52 +19760,52 @@
         <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>894400.0</v>
+        <v>699900.0</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
       </c>
       <c r="F13" t="n">
-        <v>101700.0</v>
+        <v>91100.0</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
       </c>
       <c r="H13" t="n">
-        <v>308300.0</v>
+        <v>237100.0</v>
       </c>
       <c r="I13" t="s">
         <v>36</v>
       </c>
       <c r="J13" t="n">
-        <v>549800.0</v>
+        <v>916500.0</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
       </c>
       <c r="L13" t="n">
-        <v>1399400.0</v>
+        <v>2626000.0</v>
       </c>
       <c r="M13" t="s">
         <v>38</v>
       </c>
       <c r="N13" t="n">
-        <v>2727700.0</v>
+        <v>2401700.0</v>
       </c>
       <c r="O13" t="s">
         <v>39</v>
       </c>
       <c r="P13" t="n">
-        <v>5386300.0</v>
+        <v>4681400.0</v>
       </c>
       <c r="Q13" t="s">
         <v>40</v>
       </c>
       <c r="R13" t="n">
-        <v>5435600.0</v>
+        <v>4980100.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2100400.0</v>
+        <v>2079225.0</v>
       </c>
     </row>
     <row ht="15" r="14" spans="1:27">
@@ -19819,52 +19819,52 @@
         <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>691600.0</v>
+        <v>619900.0</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>85900.0</v>
+        <v>60600.0</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
       </c>
       <c r="H14" t="n">
-        <v>45000.0</v>
+        <v>45800.0</v>
       </c>
       <c r="I14" t="s">
         <v>36</v>
       </c>
       <c r="J14" t="n">
-        <v>62900.0</v>
+        <v>75300.0</v>
       </c>
       <c r="K14" t="s">
         <v>37</v>
       </c>
       <c r="L14" t="n">
-        <v>31700.0</v>
+        <v>33100.0</v>
       </c>
       <c r="M14" t="s">
         <v>38</v>
       </c>
       <c r="N14" t="n">
-        <v>73300.0</v>
+        <v>39700.0</v>
       </c>
       <c r="O14" t="s">
         <v>39</v>
       </c>
       <c r="P14" t="n">
-        <v>73900.0</v>
+        <v>56600.0</v>
       </c>
       <c r="Q14" t="s">
         <v>40</v>
       </c>
       <c r="R14" t="n">
-        <v>36900.0</v>
+        <v>64900.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>137650.0</v>
+        <v>124487.5</v>
       </c>
     </row>
     <row ht="15" r="15" spans="1:27">
@@ -19878,52 +19878,52 @@
         <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>1432900.0</v>
+        <v>1011900.0</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
       <c r="F15" t="n">
-        <v>162400.0</v>
+        <v>140300.0</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
       <c r="H15" t="n">
-        <v>529700.0</v>
+        <v>395800.0</v>
       </c>
       <c r="I15" t="s">
         <v>36</v>
       </c>
       <c r="J15" t="n">
-        <v>1110700.0</v>
+        <v>1035900.0</v>
       </c>
       <c r="K15" t="s">
         <v>37</v>
       </c>
       <c r="L15" t="n">
-        <v>1994700.0</v>
+        <v>2257500.0</v>
       </c>
       <c r="M15" t="s">
         <v>38</v>
       </c>
       <c r="N15" t="n">
-        <v>7716900.0</v>
+        <v>5085900.0</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
       </c>
       <c r="P15" t="n">
-        <v>9371600.0</v>
+        <v>1.11074E7</v>
       </c>
       <c r="Q15" t="s">
         <v>40</v>
       </c>
       <c r="R15" t="n">
-        <v>1.05397E7</v>
+        <v>1.1266E7</v>
       </c>
       <c r="AA15" t="n">
-        <v>4107325.0</v>
+        <v>4037587.5</v>
       </c>
     </row>
     <row ht="15" r="16" spans="1:27">
@@ -19937,52 +19937,52 @@
         <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>657700.0</v>
+        <v>801300.0</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
       <c r="F16" t="n">
-        <v>46400.0</v>
+        <v>40800.0</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
       </c>
       <c r="H16" t="n">
-        <v>50300.0</v>
+        <v>51100.0</v>
       </c>
       <c r="I16" t="s">
         <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>46200.0</v>
+        <v>119200.0</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
       </c>
       <c r="L16" t="n">
-        <v>31800.0</v>
+        <v>79900.0</v>
       </c>
       <c r="M16" t="s">
         <v>38</v>
       </c>
       <c r="N16" t="n">
-        <v>76400.0</v>
+        <v>28400.0</v>
       </c>
       <c r="O16" t="s">
         <v>39</v>
       </c>
       <c r="P16" t="n">
-        <v>50900.0</v>
+        <v>66200.0</v>
       </c>
       <c r="Q16" t="s">
         <v>40</v>
       </c>
       <c r="R16" t="n">
-        <v>25600.0</v>
+        <v>28200.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>123162.5</v>
+        <v>151887.5</v>
       </c>
     </row>
     <row ht="15" r="17" spans="1:27">
@@ -19996,13 +19996,13 @@
         <v>33</v>
       </c>
       <c r="D17" t="n">
-        <v>589400.0</v>
+        <v>553700.0</v>
       </c>
       <c r="E17" t="s">
         <v>34</v>
       </c>
       <c r="F17" t="n">
-        <v>24000.0</v>
+        <v>24100.0</v>
       </c>
       <c r="G17" t="s">
         <v>35</v>
@@ -20014,34 +20014,34 @@
         <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>25000.0</v>
+        <v>23500.0</v>
       </c>
       <c r="K17" t="s">
         <v>37</v>
       </c>
       <c r="L17" t="n">
-        <v>23500.0</v>
+        <v>22100.0</v>
       </c>
       <c r="M17" t="s">
         <v>38</v>
       </c>
       <c r="N17" t="n">
-        <v>22400.0</v>
+        <v>20300.0</v>
       </c>
       <c r="O17" t="s">
         <v>39</v>
       </c>
       <c r="P17" t="n">
-        <v>21900.0</v>
+        <v>21700.0</v>
       </c>
       <c r="Q17" t="s">
         <v>40</v>
       </c>
       <c r="R17" t="n">
-        <v>28700.0</v>
+        <v>23500.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>94712.5</v>
+        <v>88962.5</v>
       </c>
     </row>
     <row ht="15" r="18" spans="1:27">
@@ -20055,52 +20055,52 @@
         <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>2.21552E7</v>
+        <v>2510800.0</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>737100.0</v>
+        <v>2986700.0</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
       </c>
       <c r="H18" t="n">
-        <v>1505500.0</v>
+        <v>2249200.0</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>3952000.0</v>
+        <v>5198200.0</v>
       </c>
       <c r="K18" t="s">
         <v>37</v>
       </c>
       <c r="L18" t="n">
-        <v>7879100.0</v>
+        <v>6668200.0</v>
       </c>
       <c r="M18" t="s">
         <v>38</v>
       </c>
       <c r="N18" t="n">
-        <v>2099000.0</v>
+        <v>3736000.0</v>
       </c>
       <c r="O18" t="s">
         <v>39</v>
       </c>
       <c r="P18" t="n">
-        <v>2595700.0</v>
+        <v>2811900.0</v>
       </c>
       <c r="Q18" t="s">
         <v>40</v>
       </c>
       <c r="R18" t="n">
-        <v>4542700.0</v>
+        <v>4198000.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>5683287.5</v>
+        <v>3794875.0</v>
       </c>
     </row>
     <row ht="15" r="19" spans="1:27">
@@ -20114,52 +20114,52 @@
         <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>1922500.0</v>
+        <v>603500.0</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>112300.0</v>
+        <v>59200.0</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
       </c>
       <c r="H19" t="n">
-        <v>76900.0</v>
+        <v>71000.0</v>
       </c>
       <c r="I19" t="s">
         <v>36</v>
       </c>
       <c r="J19" t="n">
-        <v>63900.0</v>
+        <v>138000.0</v>
       </c>
       <c r="K19" t="s">
         <v>37</v>
       </c>
       <c r="L19" t="n">
-        <v>137300.0</v>
+        <v>49000.0</v>
       </c>
       <c r="M19" t="s">
         <v>38</v>
       </c>
       <c r="N19" t="n">
-        <v>54900.0</v>
+        <v>45900.0</v>
       </c>
       <c r="O19" t="s">
         <v>39</v>
       </c>
       <c r="P19" t="n">
-        <v>101700.0</v>
+        <v>62900.0</v>
       </c>
       <c r="Q19" t="s">
         <v>40</v>
       </c>
       <c r="R19" t="n">
-        <v>45100.0</v>
+        <v>74400.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>314325.0</v>
+        <v>137987.5</v>
       </c>
     </row>
     <row ht="15" r="20" spans="1:27">
@@ -20173,52 +20173,52 @@
         <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>540700.0</v>
+        <v>558300.0</v>
       </c>
       <c r="E20" t="s">
         <v>34</v>
       </c>
       <c r="F20" t="n">
-        <v>23300.0</v>
+        <v>24000.0</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
       </c>
       <c r="H20" t="n">
-        <v>22400.0</v>
+        <v>21800.0</v>
       </c>
       <c r="I20" t="s">
         <v>36</v>
       </c>
       <c r="J20" t="n">
-        <v>37400.0</v>
+        <v>35900.0</v>
       </c>
       <c r="K20" t="s">
         <v>37</v>
       </c>
       <c r="L20" t="n">
-        <v>24000.0</v>
+        <v>21900.0</v>
       </c>
       <c r="M20" t="s">
         <v>38</v>
       </c>
       <c r="N20" t="n">
-        <v>32300.0</v>
+        <v>44400.0</v>
       </c>
       <c r="O20" t="s">
         <v>39</v>
       </c>
       <c r="P20" t="n">
-        <v>21300.0</v>
+        <v>27100.0</v>
       </c>
       <c r="Q20" t="s">
         <v>40</v>
       </c>
       <c r="R20" t="n">
-        <v>44700.0</v>
+        <v>45300.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>93262.5</v>
+        <v>97337.5</v>
       </c>
     </row>
     <row ht="15" r="21" spans="1:27">
@@ -20305,7 +20305,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D14</f>
-        <v>691600.0</v>
+        <v>619900.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -20316,7 +20316,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F14</f>
-        <v>85900.0</v>
+        <v>60600.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H14</f>
-        <v>45000.0</v>
+        <v>45800.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -20338,7 +20338,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J14</f>
-        <v>62900.0</v>
+        <v>75300.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -20349,7 +20349,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L14</f>
-        <v>31700.0</v>
+        <v>33100.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -20360,7 +20360,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N14</f>
-        <v>73300.0</v>
+        <v>39700.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -20371,7 +20371,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P14</f>
-        <v>73900.0</v>
+        <v>56600.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -20382,7 +20382,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R14</f>
-        <v>36900.0</v>
+        <v>64900.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -20391,7 +20391,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>91766.66666666667</v>
+        <v>82991.66666666667</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -20401,7 +20401,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>659900.0</v>
+        <v>586800.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -20411,7 +20411,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>5.047017142857143E10</v>
+        <v>4.026089553571429E10</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -20421,7 +20421,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>224655.6730389229</v>
+        <v>200651.17875485876</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -20476,7 +20476,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D15</f>
-        <v>1432900.0</v>
+        <v>1011900.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -20487,7 +20487,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F15</f>
-        <v>162400.0</v>
+        <v>140300.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -20498,7 +20498,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H15</f>
-        <v>529700.0</v>
+        <v>395800.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -20509,7 +20509,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J15</f>
-        <v>1110700.0</v>
+        <v>1035900.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -20520,7 +20520,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L15</f>
-        <v>1994700.0</v>
+        <v>2257500.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -20531,7 +20531,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N15</f>
-        <v>7716900.0</v>
+        <v>5085900.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -20542,7 +20542,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P15</f>
-        <v>9371600.0</v>
+        <v>1.11074E7</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -20553,7 +20553,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R15</f>
-        <v>1.05397E7</v>
+        <v>1.1266E7</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -20562,7 +20562,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>2738216.6666666665</v>
+        <v>2691725.0</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -20572,7 +20572,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>1.03773E7</v>
+        <v>1.11257E7</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -20582,7 +20582,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>1.8724914265E13</v>
+        <v>2.1873749344107145E13</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -20592,7 +20592,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>4327229.398240865</v>
+        <v>4676938.030817508</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -20647,7 +20647,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D16</f>
-        <v>657700.0</v>
+        <v>801300.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -20658,7 +20658,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F16</f>
-        <v>46400.0</v>
+        <v>40800.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -20669,7 +20669,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H16</f>
-        <v>50300.0</v>
+        <v>51100.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J16</f>
-        <v>46200.0</v>
+        <v>119200.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -20691,7 +20691,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L16</f>
-        <v>31800.0</v>
+        <v>79900.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -20702,7 +20702,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N16</f>
-        <v>76400.0</v>
+        <v>28400.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -20713,7 +20713,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P16</f>
-        <v>50900.0</v>
+        <v>66200.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R16</f>
-        <v>25600.0</v>
+        <v>28200.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -20733,7 +20733,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>82108.33333333333</v>
+        <v>101258.33333333333</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -20743,7 +20743,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>632100.0</v>
+        <v>773100.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>4.687559125E10</v>
+        <v>6.976798982142857E10</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -20763,7 +20763,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>216507.71637519065</v>
+        <v>264136.3091690133</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D17</f>
-        <v>589400.0</v>
+        <v>553700.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -20829,7 +20829,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F17</f>
-        <v>24000.0</v>
+        <v>24100.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -20851,7 +20851,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J17</f>
-        <v>25000.0</v>
+        <v>23500.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -20862,7 +20862,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L17</f>
-        <v>23500.0</v>
+        <v>22100.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -20873,7 +20873,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N17</f>
-        <v>22400.0</v>
+        <v>20300.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -20884,7 +20884,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P17</f>
-        <v>21900.0</v>
+        <v>21700.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -20895,7 +20895,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R17</f>
-        <v>28700.0</v>
+        <v>23500.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -20904,7 +20904,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>63141.666666666664</v>
+        <v>59308.333333333336</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -20914,7 +20914,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>567500.0</v>
+        <v>533400.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -20924,7 +20924,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>3.995812125E10</v>
+        <v>3.526365982142857E10</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -20934,7 +20934,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>199895.27570705616</v>
+        <v>187786.20775080522</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -20989,7 +20989,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D18</f>
-        <v>2.21552E7</v>
+        <v>2510800.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F18</f>
-        <v>737100.0</v>
+        <v>2986700.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -21011,7 +21011,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H18</f>
-        <v>1505500.0</v>
+        <v>2249200.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -21022,7 +21022,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J18</f>
-        <v>3952000.0</v>
+        <v>5198200.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -21033,7 +21033,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L18</f>
-        <v>7879100.0</v>
+        <v>6668200.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -21044,7 +21044,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N18</f>
-        <v>2099000.0</v>
+        <v>3736000.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -21055,7 +21055,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P18</f>
-        <v>2595700.0</v>
+        <v>2811900.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -21066,7 +21066,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R18</f>
-        <v>4542700.0</v>
+        <v>4198000.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -21075,7 +21075,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>3788858.3333333335</v>
+        <v>2529916.6666666665</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -21085,7 +21085,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>2.14181E7</v>
+        <v>4419000.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -21095,7 +21095,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>4.924896897553571E13</v>
+        <v>2.2926628764285713E12</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>7017760.965973101</v>
+        <v>1514154.17855269</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -21160,7 +21160,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D19</f>
-        <v>1922500.0</v>
+        <v>603500.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -21171,7 +21171,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F19</f>
-        <v>112300.0</v>
+        <v>59200.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -21182,7 +21182,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H19</f>
-        <v>76900.0</v>
+        <v>71000.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -21193,7 +21193,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J19</f>
-        <v>63900.0</v>
+        <v>138000.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L19</f>
-        <v>137300.0</v>
+        <v>49000.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N19</f>
-        <v>54900.0</v>
+        <v>45900.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -21226,7 +21226,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P19</f>
-        <v>101700.0</v>
+        <v>62900.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -21237,7 +21237,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R19</f>
-        <v>45100.0</v>
+        <v>74400.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -21246,7 +21246,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>209550.0</v>
+        <v>91991.66666666667</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -21256,7 +21256,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>1877400.0</v>
+        <v>557600.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>4.23207845E11</v>
+        <v>3.621100982142857E10</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -21276,7 +21276,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>650544.2682861789</v>
+        <v>190291.9068731736</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -21331,7 +21331,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D20</f>
-        <v>540700.0</v>
+        <v>558300.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -21342,7 +21342,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F20</f>
-        <v>23300.0</v>
+        <v>24000.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -21353,7 +21353,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H20</f>
-        <v>22400.0</v>
+        <v>21800.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -21364,7 +21364,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J20</f>
-        <v>37400.0</v>
+        <v>35900.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -21375,7 +21375,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L20</f>
-        <v>24000.0</v>
+        <v>21900.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -21386,7 +21386,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N20</f>
-        <v>32300.0</v>
+        <v>44400.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -21397,7 +21397,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P20</f>
-        <v>21300.0</v>
+        <v>27100.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -21408,7 +21408,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R20</f>
-        <v>44700.0</v>
+        <v>45300.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -21417,7 +21417,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>62175.0</v>
+        <v>64891.666666666664</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -21427,7 +21427,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>519400.0</v>
+        <v>536500.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -21437,7 +21437,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>3.275540267857143E10</v>
+        <v>3.478281410714286E10</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -21447,7 +21447,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>180984.53712561034</v>
+        <v>186501.51234545757</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -21502,7 +21502,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D6</f>
-        <v>1479500.0</v>
+        <v>1779200.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -21513,7 +21513,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F6</f>
-        <v>766800.0</v>
+        <v>530800.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -21524,7 +21524,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H6</f>
-        <v>594400.0</v>
+        <v>580100.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -21535,7 +21535,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J6</f>
-        <v>962500.0</v>
+        <v>941400.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -21546,7 +21546,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L6</f>
-        <v>2569100.0</v>
+        <v>2837800.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -21557,7 +21557,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N6</f>
-        <v>5222900.0</v>
+        <v>6033700.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -21568,7 +21568,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P6</f>
-        <v>8542600.0</v>
+        <v>7244600.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -21579,7 +21579,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R6</f>
-        <v>1.01884E7</v>
+        <v>1.1097E7</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>2527183.3333333335</v>
+        <v>2587050.0</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -21598,7 +21598,7 @@
       </c>
       <c r="C25" s="85" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>9594000.0</v>
+        <v>1.05662E7</v>
       </c>
       <c r="D25" s="86"/>
     </row>
@@ -21608,7 +21608,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>1.4250755405E13</v>
+        <v>1.4897919327857143E13</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -21618,7 +21618,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>3775017.272145917</v>
+        <v>3859782.290214973</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -21673,7 +21673,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D7</f>
-        <v>1328400.0</v>
+        <v>3109500.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -21684,7 +21684,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F7</f>
-        <v>519300.0</v>
+        <v>596500.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -21695,7 +21695,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H7</f>
-        <v>1427200.0</v>
+        <v>1446000.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -21706,7 +21706,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J7</f>
-        <v>2103600.0</v>
+        <v>2083800.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -21717,7 +21717,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L7</f>
-        <v>4967700.0</v>
+        <v>6645400.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -21728,7 +21728,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N7</f>
-        <v>9454700.0</v>
+        <v>9311300.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -21739,7 +21739,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P7</f>
-        <v>1.58759E7</v>
+        <v>1.58938E7</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -21750,7 +21750,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R7</f>
-        <v>1.88695E7</v>
+        <v>1.81387E7</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -21759,7 +21759,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>4545525.0</v>
+        <v>4768750.0</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -21769,7 +21769,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>1.83502E7</v>
+        <v>1.75422E7</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -21779,7 +21779,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>5.125080326125E13</v>
+        <v>4.5658189685E13</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -21789,7 +21789,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>7158966.633617592</v>
+        <v>6757084.407124126</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -21844,7 +21844,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D8</f>
-        <v>889600.0</v>
+        <v>707000.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -21855,7 +21855,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F8</f>
-        <v>156000.0</v>
+        <v>175900.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -21866,7 +21866,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H8</f>
-        <v>504900.0</v>
+        <v>477800.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -21877,7 +21877,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J8</f>
-        <v>758500.0</v>
+        <v>1027800.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -21888,7 +21888,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L8</f>
-        <v>3032700.0</v>
+        <v>3224000.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -21899,7 +21899,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N8</f>
-        <v>5167100.0</v>
+        <v>4474100.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -21910,7 +21910,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P8</f>
-        <v>7514000.0</v>
+        <v>7635100.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -21921,7 +21921,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R8</f>
-        <v>1.02719E7</v>
+        <v>1.00073E7</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -21930,7 +21930,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>2357891.6666666665</v>
+        <v>2310750.0</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -21940,7 +21940,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>1.01159E7</v>
+        <v>9831400.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -21950,7 +21950,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>1.4205790245535715E13</v>
+        <v>1.3507975353571428E13</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>3769056.943790544</v>
+        <v>3675319.7620848487</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -22015,7 +22015,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D9</f>
-        <v>1873000.0</v>
+        <v>743300.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -22026,7 +22026,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F9</f>
-        <v>180200.0</v>
+        <v>222600.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -22037,7 +22037,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H9</f>
-        <v>637300.0</v>
+        <v>1098100.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -22048,7 +22048,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J9</f>
-        <v>1231500.0</v>
+        <v>1779700.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -22059,7 +22059,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L9</f>
-        <v>3374700.0</v>
+        <v>2433100.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -22070,7 +22070,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N9</f>
-        <v>5693500.0</v>
+        <v>6283700.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -22081,7 +22081,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P9</f>
-        <v>1.20742E7</v>
+        <v>1.11905E7</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -22092,7 +22092,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R9</f>
-        <v>1.4825E7</v>
+        <v>1.57245E7</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -22101,7 +22101,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>3324116.6666666665</v>
+        <v>3289625.0</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -22111,7 +22111,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>1.46448E7</v>
+        <v>1.55019E7</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -22121,7 +22121,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>3.0848469787857145E13</v>
+        <v>3.258255223125E13</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -22131,7 +22131,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>5554139.878312136</v>
+        <v>5708112.843247757</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -22186,7 +22186,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D10</f>
-        <v>650000.0</v>
+        <v>783600.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -22197,7 +22197,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F10</f>
-        <v>133400.0</v>
+        <v>91700.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H10</f>
-        <v>115100.0</v>
+        <v>143100.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J10</f>
-        <v>364200.0</v>
+        <v>278300.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -22230,7 +22230,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L10</f>
-        <v>643500.0</v>
+        <v>637000.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -22241,7 +22241,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N10</f>
-        <v>1452500.0</v>
+        <v>1569900.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P10</f>
-        <v>2324600.0</v>
+        <v>2860400.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R10</f>
-        <v>2681700.0</v>
+        <v>3389300.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -22272,7 +22272,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>697083.3333333334</v>
+        <v>812775.0</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -22282,7 +22282,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>2566600.0</v>
+        <v>3297600.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -22292,7 +22292,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>9.940943764285714E11</v>
+        <v>1.6241580569642856E12</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>997042.8157449265</v>
+        <v>1274424.598383241</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -22357,7 +22357,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D11</f>
-        <v>617500.0</v>
+        <v>635400.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -22368,7 +22368,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F11</f>
-        <v>85700.0</v>
+        <v>133000.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H11</f>
-        <v>205500.0</v>
+        <v>510400.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -22390,7 +22390,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J11</f>
-        <v>487400.0</v>
+        <v>600200.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -22401,7 +22401,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L11</f>
-        <v>1066500.0</v>
+        <v>1081000.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -22412,7 +22412,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N11</f>
-        <v>2541500.0</v>
+        <v>2080300.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -22423,7 +22423,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P11</f>
-        <v>4545300.0</v>
+        <v>5496800.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -22434,7 +22434,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R11</f>
-        <v>4640700.0</v>
+        <v>7121700.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -22443,7 +22443,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>1182508.3333333333</v>
+        <v>1471566.6666666667</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -22453,7 +22453,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>4555000.0</v>
+        <v>6988700.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -22463,7 +22463,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>3.613009368392857E12</v>
+        <v>6.9275212E12</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -22473,7 +22473,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>1900791.7740754397</v>
+        <v>2632018.4649808216</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -22528,7 +22528,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D12</f>
-        <v>610800.0</v>
+        <v>819100.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -22539,7 +22539,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F12</f>
-        <v>91200.0</v>
+        <v>68500.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H12</f>
-        <v>131200.0</v>
+        <v>113500.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -22561,7 +22561,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J12</f>
-        <v>289000.0</v>
+        <v>296300.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -22572,7 +22572,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L12</f>
-        <v>628300.0</v>
+        <v>628500.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -22583,7 +22583,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N12</f>
-        <v>1330100.0</v>
+        <v>1557200.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -22594,7 +22594,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P12</f>
-        <v>2205600.0</v>
+        <v>2298600.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -22605,7 +22605,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R12</f>
-        <v>3018500.0</v>
+        <v>3777200.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -22614,7 +22614,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>692058.3333333334</v>
+        <v>796575.0</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -22624,7 +22624,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>2927300.0</v>
+        <v>3708700.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -22634,7 +22634,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>1.1430091098214285E12</v>
+        <v>1.6750582483928572E12</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -22644,7 +22644,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>1069116.041326398</v>
+        <v>1294240.4136762447</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -22699,7 +22699,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D13</f>
-        <v>894400.0</v>
+        <v>699900.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -22710,7 +22710,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F13</f>
-        <v>101700.0</v>
+        <v>91100.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -22721,7 +22721,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H13</f>
-        <v>308300.0</v>
+        <v>237100.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J13</f>
-        <v>549800.0</v>
+        <v>916500.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L13</f>
-        <v>1399400.0</v>
+        <v>2626000.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N13</f>
-        <v>2727700.0</v>
+        <v>2401700.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -22765,7 +22765,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P13</f>
-        <v>5386300.0</v>
+        <v>4681400.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -22776,7 +22776,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R13</f>
-        <v>5435600.0</v>
+        <v>4980100.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -22785,7 +22785,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>1400266.6666666667</v>
+        <v>1386150.0</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -22795,7 +22795,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>5333900.0</v>
+        <v>4889000.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -22805,7 +22805,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>4.838689228571429E12</v>
+        <v>3.741410847857143E12</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -22815,7 +22815,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>2199702.07723033</v>
+        <v>1934272.6922171917</v>
       </c>
       <c r="D27" s="88"/>
     </row>

--- a/datos.xlsx
+++ b/datos.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="41">
   <si>
     <t>Algoritmos de multiplicación de matrices</t>
   </si>
@@ -19347,52 +19347,52 @@
         <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>1479500.0</v>
+        <v>2504001.0</v>
       </c>
       <c r="E6" t="s">
         <v>34</v>
       </c>
       <c r="F6" t="n">
-        <v>766800.0</v>
+        <v>114900.0</v>
       </c>
       <c r="G6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="n">
-        <v>594400.0</v>
+        <v>217700.0</v>
       </c>
       <c r="I6" t="s">
         <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>962500.0</v>
+        <v>67200.0</v>
       </c>
       <c r="K6" t="s">
         <v>37</v>
       </c>
       <c r="L6" t="n">
-        <v>2569100.0</v>
+        <v>88101.0</v>
       </c>
       <c r="M6" t="s">
         <v>38</v>
       </c>
       <c r="N6" t="n">
-        <v>5222900.0</v>
+        <v>107300.0</v>
       </c>
       <c r="O6" t="s">
         <v>39</v>
       </c>
       <c r="P6" t="n">
-        <v>8542600.0</v>
+        <v>260900.0</v>
       </c>
       <c r="Q6" t="s">
         <v>40</v>
       </c>
       <c r="R6" t="n">
-        <v>1.01884E7</v>
+        <v>138800.0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3790775.0</v>
+        <v>437362.75</v>
       </c>
     </row>
     <row ht="15" r="7" spans="1:27">
@@ -19406,52 +19406,52 @@
         <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>1328400.0</v>
+        <v>1893100.0</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>519300.0</v>
+        <v>264299.0</v>
       </c>
       <c r="G7" t="s">
         <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>1427200.0</v>
+        <v>269400.0</v>
       </c>
       <c r="I7" t="s">
         <v>36</v>
       </c>
       <c r="J7" t="n">
-        <v>2103600.0</v>
+        <v>306500.0</v>
       </c>
       <c r="K7" t="s">
         <v>37</v>
       </c>
       <c r="L7" t="n">
-        <v>4967700.0</v>
+        <v>242500.0</v>
       </c>
       <c r="M7" t="s">
         <v>38</v>
       </c>
       <c r="N7" t="n">
-        <v>9454700.0</v>
+        <v>246001.0</v>
       </c>
       <c r="O7" t="s">
         <v>39</v>
       </c>
       <c r="P7" t="n">
-        <v>1.58759E7</v>
+        <v>498099.0</v>
       </c>
       <c r="Q7" t="s">
         <v>40</v>
       </c>
       <c r="R7" t="n">
-        <v>1.88695E7</v>
+        <v>368201.0</v>
       </c>
       <c r="AA7" t="n">
-        <v>6818287.5</v>
+        <v>511012.5</v>
       </c>
     </row>
     <row ht="15" r="8" spans="1:27">
@@ -19465,52 +19465,52 @@
         <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>889600.0</v>
+        <v>2.0662801E7</v>
       </c>
       <c r="E8" t="s">
         <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>156000.0</v>
+        <v>6192499.0</v>
       </c>
       <c r="G8" t="s">
         <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>504900.0</v>
+        <v>6882000.0</v>
       </c>
       <c r="I8" t="s">
         <v>36</v>
       </c>
       <c r="J8" t="n">
-        <v>758500.0</v>
+        <v>7236000.0</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
       <c r="L8" t="n">
-        <v>3032700.0</v>
+        <v>6384001.0</v>
       </c>
       <c r="M8" t="s">
         <v>38</v>
       </c>
       <c r="N8" t="n">
-        <v>5167100.0</v>
+        <v>6669599.0</v>
       </c>
       <c r="O8" t="s">
         <v>39</v>
       </c>
       <c r="P8" t="n">
-        <v>7514000.0</v>
+        <v>5976499.0</v>
       </c>
       <c r="Q8" t="s">
         <v>40</v>
       </c>
       <c r="R8" t="n">
-        <v>1.02719E7</v>
+        <v>6213600.0</v>
       </c>
       <c r="AA8" t="n">
-        <v>3536837.5</v>
+        <v>8277124.88</v>
       </c>
     </row>
     <row ht="15" r="9" spans="1:27">
@@ -19524,52 +19524,52 @@
         <v>33</v>
       </c>
       <c r="D9" t="n">
-        <v>1873000.0</v>
+        <v>1.04252E7</v>
       </c>
       <c r="E9" t="s">
         <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>180200.0</v>
+        <v>6419600.0</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="n">
-        <v>637300.0</v>
+        <v>8843700.0</v>
       </c>
       <c r="I9" t="s">
         <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>1231500.0</v>
+        <v>7401900.0</v>
       </c>
       <c r="K9" t="s">
         <v>37</v>
       </c>
       <c r="L9" t="n">
-        <v>3374700.0</v>
+        <v>7299300.0</v>
       </c>
       <c r="M9" t="s">
         <v>38</v>
       </c>
       <c r="N9" t="n">
-        <v>5693500.0</v>
+        <v>6256400.0</v>
       </c>
       <c r="O9" t="s">
         <v>39</v>
       </c>
       <c r="P9" t="n">
-        <v>1.20742E7</v>
+        <v>5989200.0</v>
       </c>
       <c r="Q9" t="s">
         <v>40</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4825E7</v>
+        <v>5636300.0</v>
       </c>
       <c r="AA9" t="n">
-        <v>4986175.0</v>
+        <v>7283950.0</v>
       </c>
     </row>
     <row ht="15" r="10" spans="1:27">
@@ -19583,52 +19583,52 @@
         <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>650000.0</v>
+        <v>964499.0</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
       </c>
       <c r="F10" t="n">
-        <v>133400.0</v>
+        <v>86601.0</v>
       </c>
       <c r="G10" t="s">
         <v>35</v>
       </c>
       <c r="H10" t="n">
-        <v>115100.0</v>
+        <v>41799.0</v>
       </c>
       <c r="I10" t="s">
         <v>36</v>
       </c>
       <c r="J10" t="n">
-        <v>364200.0</v>
+        <v>47399.0</v>
       </c>
       <c r="K10" t="s">
         <v>37</v>
       </c>
       <c r="L10" t="n">
-        <v>643500.0</v>
+        <v>72100.0</v>
       </c>
       <c r="M10" t="s">
         <v>38</v>
       </c>
       <c r="N10" t="n">
-        <v>1452500.0</v>
+        <v>51600.0</v>
       </c>
       <c r="O10" t="s">
         <v>39</v>
       </c>
       <c r="P10" t="n">
-        <v>2324600.0</v>
+        <v>80500.0</v>
       </c>
       <c r="Q10" t="s">
         <v>40</v>
       </c>
       <c r="R10" t="n">
-        <v>2681700.0</v>
+        <v>125500.0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1045625.0</v>
+        <v>183749.75</v>
       </c>
     </row>
     <row ht="15" r="11" spans="1:27">
@@ -19642,52 +19642,52 @@
         <v>33</v>
       </c>
       <c r="D11" t="n">
-        <v>617500.0</v>
+        <v>1332700.0</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
       </c>
       <c r="F11" t="n">
-        <v>85700.0</v>
+        <v>111599.0</v>
       </c>
       <c r="G11" t="s">
         <v>35</v>
       </c>
       <c r="H11" t="n">
-        <v>205500.0</v>
+        <v>58600.0</v>
       </c>
       <c r="I11" t="s">
         <v>36</v>
       </c>
       <c r="J11" t="n">
-        <v>487400.0</v>
+        <v>120500.0</v>
       </c>
       <c r="K11" t="s">
         <v>37</v>
       </c>
       <c r="L11" t="n">
-        <v>1066500.0</v>
+        <v>71900.0</v>
       </c>
       <c r="M11" t="s">
         <v>38</v>
       </c>
       <c r="N11" t="n">
-        <v>2541500.0</v>
+        <v>104300.0</v>
       </c>
       <c r="O11" t="s">
         <v>39</v>
       </c>
       <c r="P11" t="n">
-        <v>4545300.0</v>
+        <v>89600.0</v>
       </c>
       <c r="Q11" t="s">
         <v>40</v>
       </c>
       <c r="R11" t="n">
-        <v>4640700.0</v>
+        <v>107400.0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1773762.5</v>
+        <v>249574.88</v>
       </c>
     </row>
     <row ht="15" r="12" spans="1:27">
@@ -19701,52 +19701,52 @@
         <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>610800.0</v>
+        <v>1.00591E7</v>
       </c>
       <c r="E12" t="s">
         <v>34</v>
       </c>
       <c r="F12" t="n">
-        <v>91200.0</v>
+        <v>6930701.0</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
       </c>
       <c r="H12" t="n">
-        <v>131200.0</v>
+        <v>6186900.0</v>
       </c>
       <c r="I12" t="s">
         <v>36</v>
       </c>
       <c r="J12" t="n">
-        <v>289000.0</v>
+        <v>5908800.0</v>
       </c>
       <c r="K12" t="s">
         <v>37</v>
       </c>
       <c r="L12" t="n">
-        <v>628300.0</v>
+        <v>5727800.0</v>
       </c>
       <c r="M12" t="s">
         <v>38</v>
       </c>
       <c r="N12" t="n">
-        <v>1330100.0</v>
+        <v>6138000.0</v>
       </c>
       <c r="O12" t="s">
         <v>39</v>
       </c>
       <c r="P12" t="n">
-        <v>2205600.0</v>
+        <v>6426001.0</v>
       </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
       <c r="R12" t="n">
-        <v>3018500.0</v>
+        <v>6057501.0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1038087.5</v>
+        <v>6679350.38</v>
       </c>
     </row>
     <row ht="15" r="13" spans="1:27">
@@ -19760,52 +19760,52 @@
         <v>33</v>
       </c>
       <c r="D13" t="n">
-        <v>894400.0</v>
+        <v>1.25212E7</v>
       </c>
       <c r="E13" t="s">
         <v>34</v>
       </c>
       <c r="F13" t="n">
-        <v>101700.0</v>
+        <v>6239800.0</v>
       </c>
       <c r="G13" t="s">
         <v>35</v>
       </c>
       <c r="H13" t="n">
-        <v>308300.0</v>
+        <v>6471200.0</v>
       </c>
       <c r="I13" t="s">
         <v>36</v>
       </c>
       <c r="J13" t="n">
-        <v>549800.0</v>
+        <v>6446600.0</v>
       </c>
       <c r="K13" t="s">
         <v>37</v>
       </c>
       <c r="L13" t="n">
-        <v>1399400.0</v>
+        <v>6073500.0</v>
       </c>
       <c r="M13" t="s">
         <v>38</v>
       </c>
       <c r="N13" t="n">
-        <v>2727700.0</v>
+        <v>6847400.0</v>
       </c>
       <c r="O13" t="s">
         <v>39</v>
       </c>
       <c r="P13" t="n">
-        <v>5386300.0</v>
+        <v>6731299.0</v>
       </c>
       <c r="Q13" t="s">
         <v>40</v>
       </c>
       <c r="R13" t="n">
-        <v>5435600.0</v>
+        <v>6969099.0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2100400.0</v>
+        <v>7287512.25</v>
       </c>
     </row>
     <row ht="15" r="14" spans="1:27">
@@ -19819,52 +19819,52 @@
         <v>33</v>
       </c>
       <c r="D14" t="n">
-        <v>691600.0</v>
+        <v>1400700.0</v>
       </c>
       <c r="E14" t="s">
         <v>34</v>
       </c>
       <c r="F14" t="n">
-        <v>85900.0</v>
+        <v>95400.0</v>
       </c>
       <c r="G14" t="s">
         <v>35</v>
       </c>
       <c r="H14" t="n">
-        <v>45000.0</v>
+        <v>102500.0</v>
       </c>
       <c r="I14" t="s">
         <v>36</v>
       </c>
       <c r="J14" t="n">
-        <v>62900.0</v>
+        <v>81400.0</v>
       </c>
       <c r="K14" t="s">
         <v>37</v>
       </c>
       <c r="L14" t="n">
-        <v>31700.0</v>
+        <v>76300.0</v>
       </c>
       <c r="M14" t="s">
         <v>38</v>
       </c>
       <c r="N14" t="n">
-        <v>73300.0</v>
+        <v>67400.0</v>
       </c>
       <c r="O14" t="s">
         <v>39</v>
       </c>
       <c r="P14" t="n">
-        <v>73900.0</v>
+        <v>89300.0</v>
       </c>
       <c r="Q14" t="s">
         <v>40</v>
       </c>
       <c r="R14" t="n">
-        <v>36900.0</v>
+        <v>74899.0</v>
       </c>
       <c r="AA14" t="n">
-        <v>137650.0</v>
+        <v>248487.38</v>
       </c>
     </row>
     <row ht="15" r="15" spans="1:27">
@@ -19878,52 +19878,52 @@
         <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>1432900.0</v>
+        <v>1.04268E7</v>
       </c>
       <c r="E15" t="s">
         <v>34</v>
       </c>
       <c r="F15" t="n">
-        <v>162400.0</v>
+        <v>5544000.0</v>
       </c>
       <c r="G15" t="s">
         <v>35</v>
       </c>
       <c r="H15" t="n">
-        <v>529700.0</v>
+        <v>6587400.0</v>
       </c>
       <c r="I15" t="s">
         <v>36</v>
       </c>
       <c r="J15" t="n">
-        <v>1110700.0</v>
+        <v>7002699.0</v>
       </c>
       <c r="K15" t="s">
         <v>37</v>
       </c>
       <c r="L15" t="n">
-        <v>1994700.0</v>
+        <v>6183000.0</v>
       </c>
       <c r="M15" t="s">
         <v>38</v>
       </c>
       <c r="N15" t="n">
-        <v>7716900.0</v>
+        <v>6203400.0</v>
       </c>
       <c r="O15" t="s">
         <v>39</v>
       </c>
       <c r="P15" t="n">
-        <v>9371600.0</v>
+        <v>6004600.0</v>
       </c>
       <c r="Q15" t="s">
         <v>40</v>
       </c>
       <c r="R15" t="n">
-        <v>1.05397E7</v>
+        <v>6271301.0</v>
       </c>
       <c r="AA15" t="n">
-        <v>4107325.0</v>
+        <v>6777900.0</v>
       </c>
     </row>
     <row ht="15" r="16" spans="1:27">
@@ -19937,52 +19937,52 @@
         <v>33</v>
       </c>
       <c r="D16" t="n">
-        <v>657700.0</v>
+        <v>1152300.0</v>
       </c>
       <c r="E16" t="s">
         <v>34</v>
       </c>
       <c r="F16" t="n">
-        <v>46400.0</v>
+        <v>94900.0</v>
       </c>
       <c r="G16" t="s">
         <v>35</v>
       </c>
       <c r="H16" t="n">
-        <v>50300.0</v>
+        <v>35600.0</v>
       </c>
       <c r="I16" t="s">
         <v>36</v>
       </c>
       <c r="J16" t="n">
-        <v>46200.0</v>
+        <v>100101.0</v>
       </c>
       <c r="K16" t="s">
         <v>37</v>
       </c>
       <c r="L16" t="n">
-        <v>31800.0</v>
+        <v>49999.0</v>
       </c>
       <c r="M16" t="s">
         <v>38</v>
       </c>
       <c r="N16" t="n">
-        <v>76400.0</v>
+        <v>60000.0</v>
       </c>
       <c r="O16" t="s">
         <v>39</v>
       </c>
       <c r="P16" t="n">
-        <v>50900.0</v>
+        <v>37401.0</v>
       </c>
       <c r="Q16" t="s">
         <v>40</v>
       </c>
       <c r="R16" t="n">
-        <v>25600.0</v>
+        <v>38601.0</v>
       </c>
       <c r="AA16" t="n">
-        <v>123162.5</v>
+        <v>196112.75</v>
       </c>
     </row>
     <row ht="15" r="17" spans="1:27">
@@ -20041,7 +20041,7 @@
         <v>28700.0</v>
       </c>
       <c r="AA17" t="n">
-        <v>94712.5</v>
+        <v>6605050.25</v>
       </c>
     </row>
     <row ht="15" r="18" spans="1:27">
@@ -20055,52 +20055,52 @@
         <v>33</v>
       </c>
       <c r="D18" t="n">
-        <v>2.21552E7</v>
+        <v>960699.0</v>
       </c>
       <c r="E18" t="s">
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>737100.0</v>
+        <v>80900.0</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
       </c>
       <c r="H18" t="n">
-        <v>1505500.0</v>
+        <v>134399.0</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>3952000.0</v>
+        <v>195800.0</v>
       </c>
       <c r="K18" t="s">
         <v>37</v>
       </c>
       <c r="L18" t="n">
-        <v>7879100.0</v>
+        <v>80300.0</v>
       </c>
       <c r="M18" t="s">
         <v>38</v>
       </c>
       <c r="N18" t="n">
-        <v>2099000.0</v>
+        <v>116500.0</v>
       </c>
       <c r="O18" t="s">
         <v>39</v>
       </c>
       <c r="P18" t="n">
-        <v>2595700.0</v>
+        <v>151500.0</v>
       </c>
       <c r="Q18" t="s">
         <v>40</v>
       </c>
       <c r="R18" t="n">
-        <v>4542700.0</v>
+        <v>105200.0</v>
       </c>
       <c r="AA18" t="n">
-        <v>5683287.5</v>
+        <v>228162.25</v>
       </c>
     </row>
     <row ht="15" r="19" spans="1:27">
@@ -20114,52 +20114,52 @@
         <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>1922500.0</v>
+        <v>1833300.0</v>
       </c>
       <c r="E19" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>112300.0</v>
+        <v>1023200.0</v>
       </c>
       <c r="G19" t="s">
         <v>35</v>
       </c>
       <c r="H19" t="n">
-        <v>76900.0</v>
+        <v>648300.0</v>
       </c>
       <c r="I19" t="s">
         <v>36</v>
       </c>
       <c r="J19" t="n">
-        <v>63900.0</v>
+        <v>642499.0</v>
       </c>
       <c r="K19" t="s">
         <v>37</v>
       </c>
       <c r="L19" t="n">
-        <v>137300.0</v>
+        <v>609301.0</v>
       </c>
       <c r="M19" t="s">
         <v>38</v>
       </c>
       <c r="N19" t="n">
-        <v>54900.0</v>
+        <v>542000.0</v>
       </c>
       <c r="O19" t="s">
         <v>39</v>
       </c>
       <c r="P19" t="n">
-        <v>101700.0</v>
+        <v>869300.0</v>
       </c>
       <c r="Q19" t="s">
         <v>40</v>
       </c>
       <c r="R19" t="n">
-        <v>45100.0</v>
+        <v>592000.0</v>
       </c>
       <c r="AA19" t="n">
-        <v>314325.0</v>
+        <v>844987.5</v>
       </c>
     </row>
     <row ht="15" r="20" spans="1:27">
@@ -20173,52 +20173,52 @@
         <v>33</v>
       </c>
       <c r="D20" t="n">
-        <v>540700.0</v>
+        <v>8752701.0</v>
       </c>
       <c r="E20" t="s">
         <v>34</v>
       </c>
       <c r="F20" t="n">
-        <v>23300.0</v>
+        <v>6565301.0</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
       </c>
       <c r="H20" t="n">
-        <v>22400.0</v>
+        <v>6049000.0</v>
       </c>
       <c r="I20" t="s">
         <v>36</v>
       </c>
       <c r="J20" t="n">
-        <v>37400.0</v>
+        <v>6888699.0</v>
       </c>
       <c r="K20" t="s">
         <v>37</v>
       </c>
       <c r="L20" t="n">
-        <v>24000.0</v>
+        <v>5793500.0</v>
       </c>
       <c r="M20" t="s">
         <v>38</v>
       </c>
       <c r="N20" t="n">
-        <v>32300.0</v>
+        <v>6391200.0</v>
       </c>
       <c r="O20" t="s">
         <v>39</v>
       </c>
       <c r="P20" t="n">
-        <v>21300.0</v>
+        <v>5969300.0</v>
       </c>
       <c r="Q20" t="s">
         <v>40</v>
       </c>
       <c r="R20" t="n">
-        <v>44700.0</v>
+        <v>6450000.0</v>
       </c>
       <c r="AA20" t="n">
-        <v>93262.5</v>
+        <v>6607462.62</v>
       </c>
     </row>
     <row ht="15" r="21" spans="1:27">
@@ -20305,7 +20305,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D14</f>
-        <v>691600.0</v>
+        <v>1400700.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -20316,7 +20316,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F14</f>
-        <v>85900.0</v>
+        <v>95400.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H14</f>
-        <v>45000.0</v>
+        <v>102500.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -20338,7 +20338,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J14</f>
-        <v>62900.0</v>
+        <v>81400.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -20349,7 +20349,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L14</f>
-        <v>31700.0</v>
+        <v>76300.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -20360,7 +20360,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N14</f>
-        <v>73300.0</v>
+        <v>67400.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -20371,7 +20371,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P14</f>
-        <v>73900.0</v>
+        <v>89300.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -20382,7 +20382,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R14</f>
-        <v>36900.0</v>
+        <v>74899.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -20391,7 +20391,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>91766.66666666667</v>
+        <v>165658.25</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -20401,7 +20401,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>659900.0</v>
+        <v>1333300.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -20411,7 +20411,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>5.047017142857143E10</v>
+        <v>2.16882122275125E11</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -20421,7 +20421,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>224655.6730389229</v>
+        <v>465706.0470673803</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -20476,7 +20476,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D15</f>
-        <v>1432900.0</v>
+        <v>1.04268E7</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -20487,7 +20487,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F15</f>
-        <v>162400.0</v>
+        <v>5544000.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -20498,7 +20498,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H15</f>
-        <v>529700.0</v>
+        <v>6587400.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -20509,7 +20509,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J15</f>
-        <v>1110700.0</v>
+        <v>7002699.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -20520,7 +20520,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L15</f>
-        <v>1994700.0</v>
+        <v>6183000.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -20531,7 +20531,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N15</f>
-        <v>7716900.0</v>
+        <v>6203400.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -20542,7 +20542,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P15</f>
-        <v>9371600.0</v>
+        <v>6004600.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -20553,7 +20553,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R15</f>
-        <v>1.05397E7</v>
+        <v>6271301.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -20562,7 +20562,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>2738216.6666666665</v>
+        <v>4518600.0</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -20572,7 +20572,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>1.03773E7</v>
+        <v>4882800.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -20582,7 +20582,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>1.8724914265E13</v>
+        <v>2.351770993886E12</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -20592,7 +20592,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>4327229.398240865</v>
+        <v>1533548.4974026743</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -20647,7 +20647,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D16</f>
-        <v>657700.0</v>
+        <v>1152300.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -20658,7 +20658,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F16</f>
-        <v>46400.0</v>
+        <v>94900.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -20669,7 +20669,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H16</f>
-        <v>50300.0</v>
+        <v>35600.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J16</f>
-        <v>46200.0</v>
+        <v>100101.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -20691,7 +20691,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L16</f>
-        <v>31800.0</v>
+        <v>49999.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -20702,7 +20702,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N16</f>
-        <v>76400.0</v>
+        <v>60000.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -20713,7 +20713,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P16</f>
-        <v>50900.0</v>
+        <v>37401.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -20724,7 +20724,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R16</f>
-        <v>25600.0</v>
+        <v>38601.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -20733,7 +20733,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>82108.33333333333</v>
+        <v>130741.83333333333</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -20743,7 +20743,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>632100.0</v>
+        <v>1116700.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -20753,7 +20753,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>4.687559125E10</v>
+        <v>1.4991370807192856E11</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -20763,7 +20763,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>216507.71637519065</v>
+        <v>387186.91619414074</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -20989,7 +20989,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D18</f>
-        <v>2.21552E7</v>
+        <v>960699.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -21000,7 +21000,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F18</f>
-        <v>737100.0</v>
+        <v>80900.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -21011,7 +21011,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H18</f>
-        <v>1505500.0</v>
+        <v>134399.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -21022,7 +21022,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J18</f>
-        <v>3952000.0</v>
+        <v>195800.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -21033,7 +21033,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L18</f>
-        <v>7879100.0</v>
+        <v>80300.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -21044,7 +21044,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N18</f>
-        <v>2099000.0</v>
+        <v>116500.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -21055,7 +21055,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P18</f>
-        <v>2595700.0</v>
+        <v>151500.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -21066,7 +21066,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R18</f>
-        <v>4542700.0</v>
+        <v>105200.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -21075,7 +21075,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>3788858.3333333335</v>
+        <v>152108.16666666666</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -21085,7 +21085,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>2.14181E7</v>
+        <v>880399.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -21095,7 +21095,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>4.924896897553571E13</v>
+        <v>8.906623445735715E10</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>7017760.965973101</v>
+        <v>298439.66636048426</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -21160,7 +21160,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D19</f>
-        <v>1922500.0</v>
+        <v>1833300.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -21171,7 +21171,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F19</f>
-        <v>112300.0</v>
+        <v>1023200.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -21182,7 +21182,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H19</f>
-        <v>76900.0</v>
+        <v>648300.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -21193,7 +21193,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J19</f>
-        <v>63900.0</v>
+        <v>642499.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -21204,7 +21204,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L19</f>
-        <v>137300.0</v>
+        <v>609301.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N19</f>
-        <v>54900.0</v>
+        <v>542000.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -21226,7 +21226,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P19</f>
-        <v>101700.0</v>
+        <v>869300.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -21237,7 +21237,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R19</f>
-        <v>45100.0</v>
+        <v>592000.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -21246,7 +21246,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>209550.0</v>
+        <v>563325.0</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -21256,7 +21256,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>1877400.0</v>
+        <v>1291300.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -21266,7 +21266,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>4.23207845E11</v>
+        <v>1.857360260502857E11</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -21276,7 +21276,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>650544.2682861789</v>
+        <v>430971.02692673635</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -21331,7 +21331,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D20</f>
-        <v>540700.0</v>
+        <v>8752701.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -21342,7 +21342,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F20</f>
-        <v>23300.0</v>
+        <v>6565301.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -21353,7 +21353,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H20</f>
-        <v>22400.0</v>
+        <v>6049000.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -21364,7 +21364,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J20</f>
-        <v>37400.0</v>
+        <v>6888699.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -21375,7 +21375,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L20</f>
-        <v>24000.0</v>
+        <v>5793500.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -21386,7 +21386,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N20</f>
-        <v>32300.0</v>
+        <v>6391200.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -21397,7 +21397,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P20</f>
-        <v>21300.0</v>
+        <v>5969300.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -21408,7 +21408,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R20</f>
-        <v>44700.0</v>
+        <v>6450000.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -21417,7 +21417,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>62175.0</v>
+        <v>4404975.083333333</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -21427,7 +21427,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>519400.0</v>
+        <v>2959201.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -21437,7 +21437,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>3.275540267857143E10</v>
+        <v>8.765929117754108E11</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -21447,7 +21447,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>180984.53712561034</v>
+        <v>936265.4066958849</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -21502,7 +21502,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D6</f>
-        <v>1479500.0</v>
+        <v>2504001.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -21513,7 +21513,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F6</f>
-        <v>766800.0</v>
+        <v>114900.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -21524,7 +21524,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H6</f>
-        <v>594400.0</v>
+        <v>217700.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -21535,7 +21535,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J6</f>
-        <v>962500.0</v>
+        <v>67200.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -21546,7 +21546,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L6</f>
-        <v>2569100.0</v>
+        <v>88101.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -21557,7 +21557,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N6</f>
-        <v>5222900.0</v>
+        <v>107300.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -21568,7 +21568,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P6</f>
-        <v>8542600.0</v>
+        <v>260900.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -21579,7 +21579,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R6</f>
-        <v>1.01884E7</v>
+        <v>138800.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -21588,7 +21588,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>2527183.3333333335</v>
+        <v>291575.1666666667</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -21598,7 +21598,7 @@
       </c>
       <c r="C25" s="85" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>9594000.0</v>
+        <v>2436801.0</v>
       </c>
       <c r="D25" s="86"/>
     </row>
@@ -21608,7 +21608,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>1.4250755405E13</v>
+        <v>7.016360105002142E11</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -21618,7 +21618,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>3775017.272145917</v>
+        <v>837637.1592164559</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -21673,7 +21673,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D7</f>
-        <v>1328400.0</v>
+        <v>1893100.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -21684,7 +21684,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F7</f>
-        <v>519300.0</v>
+        <v>264299.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -21695,7 +21695,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H7</f>
-        <v>1427200.0</v>
+        <v>269400.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -21706,7 +21706,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J7</f>
-        <v>2103600.0</v>
+        <v>306500.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -21717,7 +21717,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L7</f>
-        <v>4967700.0</v>
+        <v>242500.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -21728,7 +21728,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N7</f>
-        <v>9454700.0</v>
+        <v>246001.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -21739,7 +21739,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P7</f>
-        <v>1.58759E7</v>
+        <v>498099.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -21750,7 +21750,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R7</f>
-        <v>1.88695E7</v>
+        <v>368201.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -21759,7 +21759,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>4545525.0</v>
+        <v>340675.0</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -21769,7 +21769,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>1.83502E7</v>
+        <v>1650600.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -21779,7 +21779,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>5.125080326125E13</v>
+        <v>3.19161044622E11</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -21789,7 +21789,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>7158966.633617592</v>
+        <v>564943.3994852935</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -21844,7 +21844,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D8</f>
-        <v>889600.0</v>
+        <v>2.0662801E7</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -21855,7 +21855,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F8</f>
-        <v>156000.0</v>
+        <v>6192499.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -21866,7 +21866,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H8</f>
-        <v>504900.0</v>
+        <v>6882000.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -21877,7 +21877,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J8</f>
-        <v>758500.0</v>
+        <v>7236000.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -21888,7 +21888,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L8</f>
-        <v>3032700.0</v>
+        <v>6384001.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -21899,7 +21899,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N8</f>
-        <v>5167100.0</v>
+        <v>6669599.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -21910,7 +21910,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P8</f>
-        <v>7514000.0</v>
+        <v>5976499.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -21921,7 +21921,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R8</f>
-        <v>1.02719E7</v>
+        <v>6213600.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -21930,7 +21930,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>2357891.6666666665</v>
+        <v>5518083.25</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -21940,7 +21940,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>1.01159E7</v>
+        <v>1.4686302E7</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -21950,7 +21950,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>1.4205790245535715E13</v>
+        <v>2.5214289186522105E13</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -21960,7 +21960,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>3769056.943790544</v>
+        <v>5021383.194551289</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -22015,7 +22015,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D9</f>
-        <v>1873000.0</v>
+        <v>1.04252E7</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -22026,7 +22026,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F9</f>
-        <v>180200.0</v>
+        <v>6419600.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -22037,7 +22037,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H9</f>
-        <v>637300.0</v>
+        <v>8843700.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -22048,7 +22048,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J9</f>
-        <v>1231500.0</v>
+        <v>7401900.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -22059,7 +22059,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L9</f>
-        <v>3374700.0</v>
+        <v>7299300.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -22070,7 +22070,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N9</f>
-        <v>5693500.0</v>
+        <v>6256400.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -22081,7 +22081,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P9</f>
-        <v>1.20742E7</v>
+        <v>5989200.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -22092,7 +22092,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R9</f>
-        <v>1.4825E7</v>
+        <v>5636300.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -22101,7 +22101,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>3324116.6666666665</v>
+        <v>4855966.666666667</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -22111,7 +22111,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>1.46448E7</v>
+        <v>4788900.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -22121,7 +22121,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>3.0848469787857145E13</v>
+        <v>2.6440724942857144E12</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -22131,7 +22131,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>5554139.878312136</v>
+        <v>1626060.421474465</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -22186,7 +22186,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D10</f>
-        <v>650000.0</v>
+        <v>964499.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -22197,7 +22197,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F10</f>
-        <v>133400.0</v>
+        <v>86601.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -22208,7 +22208,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H10</f>
-        <v>115100.0</v>
+        <v>41799.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -22219,7 +22219,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J10</f>
-        <v>364200.0</v>
+        <v>47399.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -22230,7 +22230,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L10</f>
-        <v>643500.0</v>
+        <v>72100.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -22241,7 +22241,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N10</f>
-        <v>1452500.0</v>
+        <v>51600.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -22252,7 +22252,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P10</f>
-        <v>2324600.0</v>
+        <v>80500.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -22263,7 +22263,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R10</f>
-        <v>2681700.0</v>
+        <v>125500.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -22272,7 +22272,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>697083.3333333334</v>
+        <v>122499.83333333333</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -22282,7 +22282,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>2566600.0</v>
+        <v>922700.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -22292,7 +22292,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>9.940943764285714E11</v>
+        <v>1.0024736868621428E11</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -22302,7 +22302,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>997042.8157449265</v>
+        <v>316618.6486709434</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -22357,7 +22357,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D11</f>
-        <v>617500.0</v>
+        <v>1332700.0</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -22368,7 +22368,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F11</f>
-        <v>85700.0</v>
+        <v>111599.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -22379,7 +22379,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H11</f>
-        <v>205500.0</v>
+        <v>58600.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -22390,7 +22390,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J11</f>
-        <v>487400.0</v>
+        <v>120500.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -22401,7 +22401,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L11</f>
-        <v>1066500.0</v>
+        <v>71900.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -22412,7 +22412,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N11</f>
-        <v>2541500.0</v>
+        <v>104300.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -22423,7 +22423,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P11</f>
-        <v>4545300.0</v>
+        <v>89600.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -22434,7 +22434,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R11</f>
-        <v>4640700.0</v>
+        <v>107400.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -22443,7 +22443,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>1182508.3333333333</v>
+        <v>166383.25</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -22453,7 +22453,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>4555000.0</v>
+        <v>1274100.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -22463,7 +22463,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>3.613009368392857E12</v>
+        <v>1.9197255870726785E11</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -22473,7 +22473,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>1900791.7740754397</v>
+        <v>438146.73193722195</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -22528,7 +22528,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D12</f>
-        <v>610800.0</v>
+        <v>1.00591E7</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -22539,7 +22539,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F12</f>
-        <v>91200.0</v>
+        <v>6930701.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -22550,7 +22550,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H12</f>
-        <v>131200.0</v>
+        <v>6186900.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -22561,7 +22561,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J12</f>
-        <v>289000.0</v>
+        <v>5908800.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -22572,7 +22572,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L12</f>
-        <v>628300.0</v>
+        <v>5727800.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -22583,7 +22583,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N12</f>
-        <v>1330100.0</v>
+        <v>6138000.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -22594,7 +22594,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P12</f>
-        <v>2205600.0</v>
+        <v>6426001.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -22605,7 +22605,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R12</f>
-        <v>3018500.0</v>
+        <v>6057501.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -22614,7 +22614,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>692058.3333333334</v>
+        <v>4452900.25</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -22624,7 +22624,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>2927300.0</v>
+        <v>4331300.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -22634,7 +22634,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>1.1430091098214285E12</v>
+        <v>1.9959329731859822E12</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -22644,7 +22644,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>1069116.041326398</v>
+        <v>1412774.9195062823</v>
       </c>
       <c r="D27" s="88"/>
     </row>
@@ -22699,7 +22699,7 @@
       </c>
       <c r="D16" s="2" t="n">
         <f>CasosAnalisis!D13</f>
-        <v>894400.0</v>
+        <v>1.25212E7</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -22710,7 +22710,7 @@
       </c>
       <c r="D17" s="2" t="n">
         <f>CasosAnalisis!F13</f>
-        <v>101700.0</v>
+        <v>6239800.0</v>
       </c>
     </row>
     <row r="18" spans="2:4">
@@ -22721,7 +22721,7 @@
       </c>
       <c r="D18" s="2" t="n">
         <f>CasosAnalisis!H13</f>
-        <v>308300.0</v>
+        <v>6471200.0</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -22732,7 +22732,7 @@
       </c>
       <c r="D19" s="2" t="n">
         <f>CasosAnalisis!J13</f>
-        <v>549800.0</v>
+        <v>6446600.0</v>
       </c>
     </row>
     <row r="20" spans="2:4">
@@ -22743,7 +22743,7 @@
       </c>
       <c r="D20" s="2" t="n">
         <f>CasosAnalisis!L13</f>
-        <v>1399400.0</v>
+        <v>6073500.0</v>
       </c>
     </row>
     <row r="21" spans="2:4">
@@ -22754,7 +22754,7 @@
       </c>
       <c r="D21" s="2" t="n">
         <f>CasosAnalisis!N13</f>
-        <v>2727700.0</v>
+        <v>6847400.0</v>
       </c>
     </row>
     <row r="22" spans="2:4">
@@ -22765,7 +22765,7 @@
       </c>
       <c r="D22" s="2" t="n">
         <f>CasosAnalisis!P13</f>
-        <v>5386300.0</v>
+        <v>6731299.0</v>
       </c>
     </row>
     <row ht="15" r="23" spans="2:4" thickBot="1">
@@ -22776,7 +22776,7 @@
       </c>
       <c r="D23" s="2" t="n">
         <f>CasosAnalisis!R13</f>
-        <v>5435600.0</v>
+        <v>6969099.0</v>
       </c>
     </row>
     <row ht="15" r="24" spans="2:4" thickBot="1">
@@ -22785,7 +22785,7 @@
       </c>
       <c r="C24" s="85" t="n">
         <f>(D16+D17+D18+D19+D20+D21+D22+D23)/12</f>
-        <v>1400266.6666666667</v>
+        <v>4858341.5</v>
       </c>
       <c r="D24" s="86"/>
     </row>
@@ -22795,7 +22795,7 @@
       </c>
       <c r="C25" s="87" t="n">
         <f>MAX(D16:D27)-MIN(D16:D27)</f>
-        <v>5333900.0</v>
+        <v>6447700.0</v>
       </c>
       <c r="D25" s="88"/>
     </row>
@@ -22805,7 +22805,7 @@
       </c>
       <c r="C26" s="89" t="n">
         <f>VAR(D16:D27)</f>
-        <v>4.838689228571429E12</v>
+        <v>4.562996034000214E12</v>
       </c>
       <c r="D26" s="90"/>
     </row>
@@ -22815,7 +22815,7 @@
       </c>
       <c r="C27" s="87" t="n">
         <f>STDEV(D16:D27)</f>
-        <v>2199702.07723033</v>
+        <v>2136117.045950482</v>
       </c>
       <c r="D27" s="88"/>
     </row>
